--- a/inst/extdata/benthic_survey_current.xlsx
+++ b/inst/extdata/benthic_survey_current.xlsx
@@ -287,9 +287,6 @@
     <t>takiwaR Metadata</t>
   </si>
   <si>
-    <t>default_sheet_version</t>
-  </si>
-  <si>
     <t>EOF</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
   </si>
   <si>
     <t>Small Blackies</t>
-  </si>
-  <si>
-    <t>1.1</t>
   </si>
   <si>
     <t>Solitary ascidian</t>
@@ -557,6 +551,12 @@
       </rPr>
       <t>size frequency</t>
     </r>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>sheet_version</t>
   </si>
 </sst>
 </file>
@@ -1291,12 +1291,12 @@
   <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="8" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="8.625" style="8"/>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="14"/>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="14"/>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="14"/>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="28" spans="1:13" s="24" customFormat="1">
       <c r="A28" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="33">
         <v>1</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51" s="36"/>
       <c r="C51" s="37"/>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" s="36"/>
       <c r="C53" s="37"/>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B54" s="36"/>
       <c r="C54" s="37"/>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" s="36"/>
       <c r="C55" s="37"/>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="36"/>
       <c r="C56" s="37"/>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B63" s="36"/>
       <c r="C63" s="37"/>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B64" s="36"/>
       <c r="C64" s="37"/>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B74" s="36"/>
       <c r="C74" s="37"/>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="81" spans="1:13" s="24" customFormat="1">
       <c r="A81" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="33">
         <v>1</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="36"/>
       <c r="C85" s="37"/>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="36"/>
       <c r="C86" s="37"/>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B89" s="38"/>
       <c r="J89" s="3"/>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="91" spans="1:13" s="24" customFormat="1">
       <c r="A91" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" s="33">
         <v>1</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="39"/>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="39"/>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="39"/>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="39"/>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B96" s="38"/>
       <c r="J96" s="3"/>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B97" s="38"/>
       <c r="J97" s="3"/>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B98" s="38"/>
       <c r="J98" s="3"/>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B99" s="38"/>
       <c r="J99" s="3"/>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="101" spans="1:13" s="24" customFormat="1">
       <c r="A101" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B101" s="33">
         <v>1</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B111" s="35"/>
       <c r="C111" s="35"/>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B112" s="35"/>
       <c r="C112" s="35"/>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B114" s="35"/>
       <c r="C114" s="35"/>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115" s="35"/>
       <c r="C115" s="35"/>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B116" s="35"/>
       <c r="C116" s="35"/>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B119" s="35"/>
       <c r="C119" s="35"/>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B120" s="35"/>
       <c r="C120" s="35"/>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B122" s="35"/>
       <c r="C122" s="35"/>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B126" s="40"/>
       <c r="C126" s="40"/>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B150" s="41"/>
       <c r="C150" s="41"/>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:2">
